--- a/static/ipa_1_2/data/all_data.xlsx
+++ b/static/ipa_1_2/data/all_data.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FK110"/>
+  <dimension ref="A1:FK124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80742,6 +80742,9960 @@
         <v>1</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F111" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>23</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>26830</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Artificial-0.4-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Left = Subject-3//Right = Artificial-0.4-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X111" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY111" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ111" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB111" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC111" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD111" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE111" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG111" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH111" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA111" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB111" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC111" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD111" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE111" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF111" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG111" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH111" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI111" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB111" t="n">
+        <v>91</v>
+      </c>
+      <c r="EC111" t="n">
+        <v>36</v>
+      </c>
+      <c r="ED111" t="n">
+        <v>83</v>
+      </c>
+      <c r="EE111" t="n">
+        <v>11</v>
+      </c>
+      <c r="EF111" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG111" t="n">
+        <v>69</v>
+      </c>
+      <c r="EH111" t="n">
+        <v>4</v>
+      </c>
+      <c r="EI111" t="n">
+        <v>47</v>
+      </c>
+      <c r="EJ111" t="n">
+        <v>76</v>
+      </c>
+      <c r="EK111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC111" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="FD111" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="FE111" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="FF111" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="FG111" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="FH111" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="FI111" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="FJ111" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="FK111" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F112" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>23</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>20612</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Artificial-0.3-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Left = Artificial-0.3-Identification Task - SlowPhase-Subject-3//Right = Subject-3</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X112" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY112" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ112" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB112" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC112" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD112" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE112" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG112" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH112" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA112" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB112" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC112" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD112" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE112" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF112" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG112" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH112" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI112" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB112" t="n">
+        <v>98</v>
+      </c>
+      <c r="EC112" t="n">
+        <v>68</v>
+      </c>
+      <c r="ED112" t="n">
+        <v>25</v>
+      </c>
+      <c r="EE112" t="n">
+        <v>83</v>
+      </c>
+      <c r="EF112" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG112" t="n">
+        <v>26</v>
+      </c>
+      <c r="EH112" t="n">
+        <v>3</v>
+      </c>
+      <c r="EI112" t="n">
+        <v>67</v>
+      </c>
+      <c r="EJ112" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC112" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FD112" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="FE112" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="FF112" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="FG112" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="FH112" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="FI112" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FJ112" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="FK112" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>23</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>no one</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>Artificial-0.4-Identification Task - SlowPhase-No_One-1-Subject-3</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Left = Artificial-0.4-Identification Task - SlowPhase-No_One-1-Subject-3//Right = Artificial-0.4-Identification Task - SlowPhase-No_One-2-Subject-3</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X113" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY113" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ113" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB113" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC113" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD113" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE113" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF113" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG113" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH113" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA113" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB113" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC113" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD113" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE113" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF113" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG113" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH113" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI113" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB113" t="n">
+        <v>93</v>
+      </c>
+      <c r="EC113" t="n">
+        <v>54</v>
+      </c>
+      <c r="ED113" t="n">
+        <v>97</v>
+      </c>
+      <c r="EE113" t="n">
+        <v>80</v>
+      </c>
+      <c r="EF113" t="n">
+        <v>11</v>
+      </c>
+      <c r="EG113" t="n">
+        <v>5</v>
+      </c>
+      <c r="EH113" t="n">
+        <v>81</v>
+      </c>
+      <c r="EI113" t="n">
+        <v>32</v>
+      </c>
+      <c r="EJ113" t="n">
+        <v>62</v>
+      </c>
+      <c r="EK113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC113" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="FD113" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="FE113" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FF113" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="FG113" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="FH113" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="FI113" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="FJ113" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="FK113" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>23</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>no one</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>4</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>Artificial-0.5-Identification Task - SlowPhase-No_One-1-Subject-3</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>Left = Artificial-0.5-Identification Task - SlowPhase-No_One-1-Subject-3//Right = Artificial-0.5-Identification Task - SlowPhase-No_One-2-Subject-3</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X114" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY114" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ114" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB114" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC114" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD114" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE114" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG114" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH114" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA114" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB114" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC114" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD114" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE114" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF114" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG114" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH114" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI114" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB114" t="n">
+        <v>82</v>
+      </c>
+      <c r="EC114" t="n">
+        <v>99</v>
+      </c>
+      <c r="ED114" t="n">
+        <v>46</v>
+      </c>
+      <c r="EE114" t="n">
+        <v>84</v>
+      </c>
+      <c r="EF114" t="n">
+        <v>38</v>
+      </c>
+      <c r="EG114" t="n">
+        <v>71</v>
+      </c>
+      <c r="EH114" t="n">
+        <v>29</v>
+      </c>
+      <c r="EI114" t="n">
+        <v>74</v>
+      </c>
+      <c r="EJ114" t="n">
+        <v>25</v>
+      </c>
+      <c r="EK114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC114" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="FD114" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FE114" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="FF114" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="FG114" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="FH114" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="FI114" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="FJ114" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="FK114" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>23</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>5</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>Artificial-0.5-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>Left = Subject-3//Right = Artificial-0.5-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X115" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY115" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ115" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB115" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC115" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD115" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE115" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG115" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH115" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA115" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB115" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC115" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD115" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE115" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF115" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG115" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH115" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI115" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB115" t="n">
+        <v>87</v>
+      </c>
+      <c r="EC115" t="n">
+        <v>18</v>
+      </c>
+      <c r="ED115" t="n">
+        <v>8</v>
+      </c>
+      <c r="EE115" t="n">
+        <v>32</v>
+      </c>
+      <c r="EF115" t="n">
+        <v>35</v>
+      </c>
+      <c r="EG115" t="n">
+        <v>76</v>
+      </c>
+      <c r="EH115" t="n">
+        <v>13</v>
+      </c>
+      <c r="EI115" t="n">
+        <v>11</v>
+      </c>
+      <c r="EJ115" t="n">
+        <v>50</v>
+      </c>
+      <c r="EK115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC115" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="FD115" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="FE115" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="FF115" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="FG115" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="FH115" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="FI115" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="FJ115" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="FK115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>3</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>23</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>6</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>Artificial-0.6-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>Left = Subject-3//Right = Artificial-0.6-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X116" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY116" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ116" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB116" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC116" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD116" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE116" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG116" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH116" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA116" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB116" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC116" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD116" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE116" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF116" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG116" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH116" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI116" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB116" t="n">
+        <v>89</v>
+      </c>
+      <c r="EC116" t="n">
+        <v>73</v>
+      </c>
+      <c r="ED116" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE116" t="n">
+        <v>31</v>
+      </c>
+      <c r="EF116" t="n">
+        <v>52</v>
+      </c>
+      <c r="EG116" t="n">
+        <v>99</v>
+      </c>
+      <c r="EH116" t="n">
+        <v>12</v>
+      </c>
+      <c r="EI116" t="n">
+        <v>51</v>
+      </c>
+      <c r="EJ116" t="n">
+        <v>25</v>
+      </c>
+      <c r="EK116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC116" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="FD116" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="FE116" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="FF116" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="FG116" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="FH116" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="FI116" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="FJ116" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="FK116" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>23</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>1339</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>7</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>Artificial-0.7-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>Left = Artificial-0.7-Identification Task - SlowPhase-Subject-3//Right = Subject-3</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X117" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY117" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ117" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB117" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC117" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD117" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE117" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG117" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH117" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA117" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB117" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC117" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD117" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE117" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF117" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG117" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH117" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI117" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB117" t="n">
+        <v>47</v>
+      </c>
+      <c r="EC117" t="n">
+        <v>47</v>
+      </c>
+      <c r="ED117" t="n">
+        <v>50</v>
+      </c>
+      <c r="EE117" t="n">
+        <v>62</v>
+      </c>
+      <c r="EF117" t="n">
+        <v>46</v>
+      </c>
+      <c r="EG117" t="n">
+        <v>73</v>
+      </c>
+      <c r="EH117" t="n">
+        <v>79</v>
+      </c>
+      <c r="EI117" t="n">
+        <v>68</v>
+      </c>
+      <c r="EJ117" t="n">
+        <v>92</v>
+      </c>
+      <c r="EK117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC117" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="FD117" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="FE117" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF117" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="FG117" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="FH117" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="FI117" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="FJ117" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="FK117" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>23</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>8</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>Artificial-0.1-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>Left = Subject-3//Right = Artificial-0.1-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X118" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY118" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ118" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA118" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB118" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC118" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD118" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE118" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF118" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG118" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH118" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA118" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB118" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC118" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD118" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE118" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF118" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG118" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH118" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI118" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB118" t="n">
+        <v>6</v>
+      </c>
+      <c r="EC118" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED118" t="n">
+        <v>93</v>
+      </c>
+      <c r="EE118" t="n">
+        <v>86</v>
+      </c>
+      <c r="EF118" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH118" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI118" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ118" t="n">
+        <v>97</v>
+      </c>
+      <c r="EK118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC118" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="FD118" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="FE118" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="FF118" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="FG118" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="FH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI118" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="FJ118" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="FK118" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>23</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>no one</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>9</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>Artificial-0.6-Identification Task - SlowPhase-No_One-1-Subject-3</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>Left = Artificial-0.6-Identification Task - SlowPhase-No_One-2-Subject-3//Right = Artificial-0.6-Identification Task - SlowPhase-No_One-1-Subject-3</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X119" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY119" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ119" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA119" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB119" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC119" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD119" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE119" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF119" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG119" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH119" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA119" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB119" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC119" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD119" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE119" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF119" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG119" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH119" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI119" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB119" t="n">
+        <v>23</v>
+      </c>
+      <c r="EC119" t="n">
+        <v>24</v>
+      </c>
+      <c r="ED119" t="n">
+        <v>50</v>
+      </c>
+      <c r="EE119" t="n">
+        <v>93</v>
+      </c>
+      <c r="EF119" t="n">
+        <v>46</v>
+      </c>
+      <c r="EG119" t="n">
+        <v>32</v>
+      </c>
+      <c r="EH119" t="n">
+        <v>54</v>
+      </c>
+      <c r="EI119" t="n">
+        <v>50</v>
+      </c>
+      <c r="EJ119" t="n">
+        <v>65</v>
+      </c>
+      <c r="EK119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC119" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="FD119" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="FE119" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF119" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="FG119" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="FH119" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="FI119" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="FJ119" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK119" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>23</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>1269</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>10</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>Artificial-0.8-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>Left = Artificial-0.8-Identification Task - SlowPhase-Subject-3//Right = Subject-3</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X120" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY120" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ120" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA120" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB120" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC120" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD120" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE120" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF120" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG120" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH120" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA120" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB120" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC120" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD120" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE120" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF120" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG120" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH120" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI120" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB120" t="n">
+        <v>44</v>
+      </c>
+      <c r="EC120" t="n">
+        <v>55</v>
+      </c>
+      <c r="ED120" t="n">
+        <v>50</v>
+      </c>
+      <c r="EE120" t="n">
+        <v>62</v>
+      </c>
+      <c r="EF120" t="n">
+        <v>59</v>
+      </c>
+      <c r="EG120" t="n">
+        <v>100</v>
+      </c>
+      <c r="EH120" t="n">
+        <v>31</v>
+      </c>
+      <c r="EI120" t="n">
+        <v>48</v>
+      </c>
+      <c r="EJ120" t="n">
+        <v>84</v>
+      </c>
+      <c r="EK120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC120" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="FD120" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="FE120" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF120" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="FG120" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="FH120" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI120" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="FJ120" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="FK120" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>23</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>no one</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>11</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>Artificial-0.7-Identification Task - SlowPhase-No_One-2-Subject-3</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>Left = Artificial-0.7-Identification Task - SlowPhase-No_One-1-Subject-3//Right = Artificial-0.7-Identification Task - SlowPhase-No_One-2-Subject-3</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X121" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY121" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ121" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA121" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB121" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC121" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD121" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE121" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF121" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG121" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH121" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA121" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB121" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC121" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD121" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE121" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF121" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG121" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH121" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI121" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB121" t="n">
+        <v>88</v>
+      </c>
+      <c r="EC121" t="n">
+        <v>54</v>
+      </c>
+      <c r="ED121" t="n">
+        <v>45</v>
+      </c>
+      <c r="EE121" t="n">
+        <v>73</v>
+      </c>
+      <c r="EF121" t="n">
+        <v>67</v>
+      </c>
+      <c r="EG121" t="n">
+        <v>65</v>
+      </c>
+      <c r="EH121" t="n">
+        <v>59</v>
+      </c>
+      <c r="EI121" t="n">
+        <v>44</v>
+      </c>
+      <c r="EJ121" t="n">
+        <v>55</v>
+      </c>
+      <c r="EK121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC121" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="FD121" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="FE121" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="FF121" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="FG121" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="FH121" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="FI121" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="FJ121" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="FK121" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F122" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>23</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>12</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>Artificial-0.2-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>Left = Subject-3//Right = Artificial-0.2-Identification Task - SlowPhase-Subject-3</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X122" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY122" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ122" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA122" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB122" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC122" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD122" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE122" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF122" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG122" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH122" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA122" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB122" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC122" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD122" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE122" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF122" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG122" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH122" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI122" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC122" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED122" t="n">
+        <v>91</v>
+      </c>
+      <c r="EE122" t="n">
+        <v>85</v>
+      </c>
+      <c r="EF122" t="n">
+        <v>91</v>
+      </c>
+      <c r="EG122" t="n">
+        <v>47</v>
+      </c>
+      <c r="EH122" t="n">
+        <v>8</v>
+      </c>
+      <c r="EI122" t="n">
+        <v>4</v>
+      </c>
+      <c r="EJ122" t="n">
+        <v>13</v>
+      </c>
+      <c r="EK122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="FD122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="FE122" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="FF122" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="FG122" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="FH122" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="FI122" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="FJ122" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="FK122" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>23</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>43592</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>5128,20743,158,167,160,175,183,183,175,175,182,192,215,207,199,175,199,199,247,4837,1687,1182,158,159,152,143,118,135,136,126,127,119,135,143,151,136,143,151</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>hobbies,personality,political_affiliation,socio_economic,dress_propeties,intelligence,body_size,ethnicity_skin_color,way_of_speech,political_affiliation,socio_economic,body_size,intelligence,dress_propeties,way_of_speech,hobbies,personality,ethnicity_skin_color,intelligence,hobbies,socio_economic,ethnicity_skin_color,personality,dress_propeties,body_size,political_affiliation,way_of_speech,body_size,hobbies,political_affiliation,ethnicity_skin_color,intelligence,personality,socio_economic,way_of_speech,dress_propeties</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>profiles</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>1</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>Artificial-0.5-During Profile Presentation - Practice-Subject-3</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X123" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY123" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ123" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA123" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB123" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC123" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD123" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE123" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF123" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG123" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH123" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA123" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB123" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC123" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD123" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE123" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF123" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG123" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH123" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI123" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB123" t="n">
+        <v>89</v>
+      </c>
+      <c r="EC123" t="n">
+        <v>80</v>
+      </c>
+      <c r="ED123" t="n">
+        <v>48</v>
+      </c>
+      <c r="EE123" t="n">
+        <v>57</v>
+      </c>
+      <c r="EF123" t="n">
+        <v>5</v>
+      </c>
+      <c r="EG123" t="n">
+        <v>33</v>
+      </c>
+      <c r="EH123" t="n">
+        <v>22</v>
+      </c>
+      <c r="EI123" t="n">
+        <v>26</v>
+      </c>
+      <c r="EJ123" t="n">
+        <v>96</v>
+      </c>
+      <c r="EK123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC123" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="FD123" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="FE123" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="FF123" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="FG123" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="FH123" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="FI123" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="FJ123" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="FK123" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>IPA2</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>44832.50028530548</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44832.51131844236</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>23</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>2640</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>11599,5039,167,159,176,174,191,167,175,175,175,190,184,182,168,166,143,152,142</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>dress_propeties,personality,dress_propeties,socio_economic,ethnicity_skin_color,political_affiliation,hobbies,body_size,way_of_speech,body_size,political_affiliation,hobbies,way_of_speech,ethnicity_skin_color,personality,intelligence,dress_propeties,socio_economic</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>profiles</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>2</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>Artificial-0.2-During Profile Presentation - Trials-Subject-3</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X124" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY124" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>53</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>53</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>53</v>
+      </c>
+      <c r="BH124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BI124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BJ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BK124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BM124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BN124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BO124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BP124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BQ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BR124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BS124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BT124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BU124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BV124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BW124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BX124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BY124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BZ124" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA124" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB124" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC124" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD124" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE124" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF124" t="n">
+        <v>50</v>
+      </c>
+      <c r="CG124" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH124" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CJ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CK124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CL124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CM124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CN124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CO124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CP124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CQ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CR124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CS124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CT124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CU124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CV124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CW124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CX124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CY124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CZ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DA124" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB124" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC124" t="n">
+        <v>50</v>
+      </c>
+      <c r="DD124" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE124" t="n">
+        <v>50</v>
+      </c>
+      <c r="DF124" t="n">
+        <v>50</v>
+      </c>
+      <c r="DG124" t="n">
+        <v>50</v>
+      </c>
+      <c r="DH124" t="n">
+        <v>50</v>
+      </c>
+      <c r="DI124" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DK124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DM124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DN124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DO124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DP124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DQ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DR124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DS124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DT124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DV124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DW124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DX124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DY124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DZ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EA124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EB124" t="n">
+        <v>89</v>
+      </c>
+      <c r="EC124" t="n">
+        <v>99</v>
+      </c>
+      <c r="ED124" t="n">
+        <v>90</v>
+      </c>
+      <c r="EE124" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF124" t="n">
+        <v>10</v>
+      </c>
+      <c r="EG124" t="n">
+        <v>28</v>
+      </c>
+      <c r="EH124" t="n">
+        <v>9</v>
+      </c>
+      <c r="EI124" t="n">
+        <v>74</v>
+      </c>
+      <c r="EJ124" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EL124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EM124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EN124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EO124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EP124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EQ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ER124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ES124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="ET124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EU124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EV124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EW124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EX124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EY124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="EZ124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FA124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FB124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="FC124" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="FD124" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FE124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="FF124" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FG124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="FH124" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="FI124" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="FJ124" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="FK124" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
